--- a/biology/Botanique/Square_Carnot/Square_Carnot.xlsx
+++ b/biology/Botanique/Square_Carnot/Square_Carnot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Carnot est un espace vert du 12e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par l'esplanade Saint-Louis.
 Il est desservi par la ligne 1 à la station Bérault.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Carnot a été réalisé après l'aménagement du quartier Carnot, vaste casernement de cavalerie implanté en face du château de Vincennes en 1889.
 Il a été créé en 1890 avec une superficie actuelle de 9 714 m2.
@@ -588,7 +604,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est ouvert 24 h sur 24. Un toboggan et un jeu à ressorts sont destinés aux plus petits. Le square est accessible aux personnes à mobilité réduites.
 Le cadre de ce jardin est particulièrement apprécié pour les photos de mariage.
